--- a/results/Invoice/Invoice.xlsx
+++ b/results/Invoice/Invoice.xlsx
@@ -591,7 +591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -798,11 +798,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1171,7 +1172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q26" sqref="Q26"/>
@@ -1320,60 +1321,28 @@
           <t>TO:</t>
         </is>
       </c>
-      <c r="B6" s="60" t="inlineStr">
-        <is>
-          <t>NORRISEAL-WELLMARK</t>
-        </is>
-      </c>
+      <c r="B6" s="60" t="inlineStr"/>
       <c r="M6" s="12" t="inlineStr">
         <is>
           <t>SHIP TO:</t>
         </is>
       </c>
-      <c r="N6" s="69" t="inlineStr">
-        <is>
-          <t>NORRISEAL-WELLMARK, INC</t>
-        </is>
-      </c>
+      <c r="N6" s="69" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n"/>
-      <c r="B7" s="60" t="inlineStr">
-        <is>
-          <t>11122 WEST LITTLE YORK</t>
-        </is>
-      </c>
-      <c r="N7" s="69" t="inlineStr">
-        <is>
-          <t>11122 WEST LITTLE YORK</t>
-        </is>
-      </c>
+      <c r="B7" s="60" t="inlineStr"/>
+      <c r="N7" s="69" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n"/>
-      <c r="B8" s="60" t="inlineStr">
-        <is>
-          <t>HOUSTON, TX 77041</t>
-        </is>
-      </c>
-      <c r="N8" s="69" t="inlineStr">
-        <is>
-          <t>HOUSTON, TX 77041</t>
-        </is>
-      </c>
+      <c r="B8" s="60" t="inlineStr"/>
+      <c r="N8" s="69" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n"/>
-      <c r="B9" s="60" t="inlineStr">
-        <is>
-          <t>U.S.A.</t>
-        </is>
-      </c>
-      <c r="N9" s="69" t="inlineStr">
-        <is>
-          <t>U.S.A.</t>
-        </is>
-      </c>
+      <c r="B9" s="60" t="inlineStr"/>
+      <c r="N9" s="69" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n"/>
@@ -1625,7 +1594,7 @@
       <c r="C16" s="96" t="n"/>
       <c r="D16" s="95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E16" s="95" t="inlineStr">
@@ -1641,7 +1610,7 @@
       </c>
       <c r="H16" s="96" t="n"/>
       <c r="I16" s="95" t="n">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J16" s="95" t="n"/>
       <c r="K16" s="95" t="n"/>
@@ -1658,9 +1627,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="O16" s="95" t="n">
-        <v>10</v>
-      </c>
+      <c r="O16" s="95" t="n"/>
       <c r="P16" s="95" t="n">
         <v>0</v>
       </c>
@@ -1668,7 +1635,7 @@
         <v>3.8</v>
       </c>
       <c r="R16" s="95" t="n">
-        <v>18620</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1" thickTop="1">
@@ -1683,7 +1650,7 @@
       <c r="C17" s="96" t="n"/>
       <c r="D17" s="95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E17" s="95" t="inlineStr">
@@ -1728,186 +1695,130 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="95" t="n">
-        <v>3</v>
-      </c>
-      <c r="B18" s="95" t="inlineStr">
-        <is>
-          <t>bbbb</t>
-        </is>
-      </c>
-      <c r="C18" s="96" t="n"/>
-      <c r="D18" s="95" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E18" s="95" t="inlineStr">
-        <is>
-          <t>01008-1404</t>
-        </is>
-      </c>
-      <c r="F18" s="96" t="n"/>
-      <c r="G18" s="95" t="inlineStr">
-        <is>
-          <t>SADDLE</t>
-        </is>
-      </c>
-      <c r="H18" s="96" t="n"/>
-      <c r="I18" s="95" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J18" s="95" t="n"/>
-      <c r="K18" s="95" t="n"/>
-      <c r="L18" s="95" t="inlineStr">
-        <is>
-          <t>DI</t>
-        </is>
-      </c>
-      <c r="M18" s="95" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="N18" s="95" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="O18" s="95" t="n"/>
-      <c r="P18" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="95" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="R18" s="95" t="n">
-        <v>19000</v>
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   MAKE ALL CHECKS PAYABLE TO ITE, INC.</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="24" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="7" t="n"/>
+      <c r="H18" s="7" t="n"/>
+      <c r="I18" s="7" t="n"/>
+      <c r="J18" s="7" t="n"/>
+      <c r="K18" s="84" t="n"/>
+      <c r="L18" s="84" t="n"/>
+      <c r="M18" s="84" t="n"/>
+      <c r="N18" s="14" t="n"/>
+      <c r="O18" s="84" t="n"/>
+      <c r="P18" s="84" t="inlineStr">
+        <is>
+          <t>TOTAL DUE(USD):</t>
+        </is>
+      </c>
+      <c r="Q18" s="85" t="n"/>
+      <c r="R18" s="97" t="n">
+        <v>38000</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   MAKE ALL CHECKS PAYABLE TO ITE, INC.</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="24" t="n"/>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="n"/>
-      <c r="H19" s="7" t="n"/>
-      <c r="I19" s="7" t="n"/>
-      <c r="J19" s="7" t="n"/>
-      <c r="K19" s="84" t="n"/>
-      <c r="L19" s="84" t="n"/>
-      <c r="M19" s="84" t="n"/>
-      <c r="N19" s="14" t="n"/>
-      <c r="O19" s="84" t="n"/>
-      <c r="P19" s="84" t="inlineStr">
-        <is>
-          <t>TOTAL DUE(USD):</t>
-        </is>
-      </c>
-      <c r="Q19" s="85" t="n"/>
-      <c r="R19" s="97" t="n">
-        <v>56620</v>
-      </c>
+      <c r="A19" s="98" t="inlineStr">
+        <is>
+          <t>ITE USE ONLY</t>
+        </is>
+      </c>
+      <c r="B19" s="99" t="n"/>
+      <c r="C19" s="99" t="n"/>
+      <c r="D19" s="99" t="n"/>
+      <c r="E19" s="99" t="n"/>
+      <c r="F19" s="99" t="n"/>
+      <c r="G19" s="99" t="n"/>
+      <c r="H19" s="99" t="n"/>
+      <c r="I19" s="99" t="n"/>
+      <c r="J19" s="100" t="n"/>
+      <c r="K19" s="50" t="inlineStr">
+        <is>
+          <t>MANUFACTURED BY:</t>
+        </is>
+      </c>
+      <c r="N19" s="3" t="n"/>
     </row>
     <row r="20" ht="14" customHeight="1" thickBot="1">
-      <c r="A20" s="98" t="inlineStr">
-        <is>
-          <t>ITE USE ONLY</t>
-        </is>
-      </c>
-      <c r="B20" s="99" t="n"/>
-      <c r="C20" s="99" t="n"/>
-      <c r="D20" s="99" t="n"/>
-      <c r="E20" s="99" t="n"/>
-      <c r="F20" s="99" t="n"/>
-      <c r="G20" s="99" t="n"/>
-      <c r="H20" s="99" t="n"/>
-      <c r="I20" s="99" t="n"/>
-      <c r="J20" s="100" t="n"/>
-      <c r="K20" s="50" t="inlineStr">
-        <is>
-          <t>MANUFACTURED BY:</t>
+      <c r="A20" s="101" t="inlineStr">
+        <is>
+          <t>fcrq</t>
+        </is>
+      </c>
+      <c r="B20" s="47" t="n"/>
+      <c r="C20" s="45" t="inlineStr">
+        <is>
+          <t>cwdz</t>
+        </is>
+      </c>
+      <c r="D20" s="47" t="n"/>
+      <c r="E20" s="33" t="inlineStr">
+        <is>
+          <t>zffs</t>
+        </is>
+      </c>
+      <c r="F20" s="34" t="inlineStr">
+        <is>
+          <t>zfrq</t>
+        </is>
+      </c>
+      <c r="G20" s="34" t="inlineStr">
+        <is>
+          <t>crzh</t>
+        </is>
+      </c>
+      <c r="H20" s="34" t="inlineStr">
+        <is>
+          <t>crje</t>
+        </is>
+      </c>
+      <c r="I20" s="34" t="inlineStr">
+        <is>
+          <t>fkbl</t>
+        </is>
+      </c>
+      <c r="J20" s="28" t="inlineStr">
+        <is>
+          <t>tgi</t>
         </is>
       </c>
       <c r="N20" s="3" t="n"/>
     </row>
     <row r="21" ht="14" customHeight="1" thickTop="1">
-      <c r="A21" s="46" t="inlineStr">
-        <is>
-          <t>fcrq</t>
-        </is>
-      </c>
-      <c r="B21" s="47" t="n"/>
-      <c r="C21" s="45" t="inlineStr">
-        <is>
-          <t>cwdz</t>
-        </is>
-      </c>
-      <c r="D21" s="47" t="n"/>
-      <c r="E21" s="33" t="inlineStr">
-        <is>
-          <t>zffs</t>
-        </is>
-      </c>
-      <c r="F21" s="34" t="inlineStr">
-        <is>
-          <t>zfrq</t>
-        </is>
-      </c>
-      <c r="G21" s="34" t="inlineStr">
-        <is>
-          <t>crzh</t>
-        </is>
-      </c>
-      <c r="H21" s="34" t="inlineStr">
-        <is>
-          <t>crje</t>
-        </is>
-      </c>
-      <c r="I21" s="34" t="inlineStr">
-        <is>
-          <t>fkbl</t>
-        </is>
-      </c>
-      <c r="J21" s="28" t="inlineStr">
-        <is>
-          <t>tgi</t>
-        </is>
-      </c>
+      <c r="A21" s="48" t="n"/>
+      <c r="B21" s="49" t="n"/>
+      <c r="C21" s="54" t="n"/>
+      <c r="D21" s="55" t="n"/>
+      <c r="E21" s="36" t="n"/>
+      <c r="F21" s="37" t="n"/>
+      <c r="G21" s="37" t="n"/>
+      <c r="H21" s="37" t="n"/>
+      <c r="I21" s="37" t="n"/>
+      <c r="J21" s="38" t="n"/>
       <c r="N21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="48" t="n"/>
-      <c r="B22" s="49" t="n"/>
-      <c r="C22" s="54" t="n"/>
-      <c r="D22" s="55" t="n"/>
-      <c r="E22" s="36" t="n"/>
-      <c r="F22" s="37" t="n"/>
-      <c r="G22" s="37" t="n"/>
-      <c r="H22" s="37" t="n"/>
-      <c r="I22" s="37" t="n"/>
-      <c r="J22" s="38" t="n"/>
+      <c r="A22" s="42" t="n"/>
+      <c r="B22" s="43" t="n"/>
+      <c r="C22" s="44" t="n"/>
+      <c r="D22" s="43" t="n"/>
+      <c r="E22" s="40" t="n"/>
+      <c r="F22" s="39" t="n"/>
+      <c r="G22" s="39" t="n"/>
+      <c r="H22" s="39" t="n"/>
+      <c r="I22" s="39" t="n"/>
+      <c r="J22" s="41" t="n"/>
       <c r="N22" s="3" t="n"/>
     </row>
-    <row r="23">
-      <c r="A23" s="42" t="n"/>
-      <c r="B23" s="43" t="n"/>
-      <c r="C23" s="44" t="n"/>
-      <c r="D23" s="43" t="n"/>
-      <c r="E23" s="40" t="n"/>
-      <c r="F23" s="39" t="n"/>
-      <c r="G23" s="39" t="n"/>
-      <c r="H23" s="39" t="n"/>
-      <c r="I23" s="39" t="n"/>
-      <c r="J23" s="41" t="n"/>
-      <c r="N23" s="3" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="44">
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="Q3:R3"/>
@@ -1915,12 +1826,11 @@
     <mergeCell ref="N7:R7"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="B8:G8"/>
-    <mergeCell ref="A20:J20"/>
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A19:J19"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="K11:L11"/>
@@ -1928,7 +1838,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G18:H18"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="N8:R8"/>
@@ -1954,7 +1863,6 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="B14:C15"/>
-    <mergeCell ref="E18:F18"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" scale="72" horizontalDpi="4294967292" verticalDpi="300"/>

--- a/results/Invoice/Invoice.xlsx
+++ b/results/Invoice/Invoice.xlsx
@@ -801,7 +801,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,7 +1172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q26" sqref="Q26"/>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="Q3" s="58" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       <c r="C16" s="96" t="n"/>
       <c r="D16" s="95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E16" s="95" t="inlineStr">
@@ -1612,7 +1612,11 @@
       <c r="I16" s="95" t="n">
         <v>5000</v>
       </c>
-      <c r="J16" s="95" t="n"/>
+      <c r="J16" s="95" t="inlineStr">
+        <is>
+          <t>EACH</t>
+        </is>
+      </c>
       <c r="K16" s="95" t="n"/>
       <c r="L16" s="95" t="inlineStr">
         <is>
@@ -1639,186 +1643,130 @@
       </c>
     </row>
     <row r="17" ht="14" customHeight="1" thickTop="1">
-      <c r="A17" s="95" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" s="95" t="inlineStr">
-        <is>
-          <t>bbbb</t>
-        </is>
-      </c>
-      <c r="C17" s="96" t="n"/>
-      <c r="D17" s="95" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E17" s="95" t="inlineStr">
-        <is>
-          <t>01008-1404</t>
-        </is>
-      </c>
-      <c r="F17" s="96" t="n"/>
-      <c r="G17" s="95" t="inlineStr">
-        <is>
-          <t>SADDLE</t>
-        </is>
-      </c>
-      <c r="H17" s="96" t="n"/>
-      <c r="I17" s="95" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J17" s="95" t="n"/>
-      <c r="K17" s="95" t="n"/>
-      <c r="L17" s="95" t="inlineStr">
-        <is>
-          <t>DI</t>
-        </is>
-      </c>
-      <c r="M17" s="95" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="N17" s="95" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="O17" s="95" t="n"/>
-      <c r="P17" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="95" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="R17" s="95" t="n">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   MAKE ALL CHECKS PAYABLE TO ITE, INC.</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="24" t="n"/>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="7" t="n"/>
+      <c r="H17" s="7" t="n"/>
+      <c r="I17" s="7" t="n"/>
+      <c r="J17" s="7" t="n"/>
+      <c r="K17" s="84" t="n"/>
+      <c r="L17" s="84" t="n"/>
+      <c r="M17" s="84" t="n"/>
+      <c r="N17" s="14" t="n"/>
+      <c r="O17" s="84" t="n"/>
+      <c r="P17" s="84" t="inlineStr">
+        <is>
+          <t>TOTAL DUE(USD):</t>
+        </is>
+      </c>
+      <c r="Q17" s="85" t="n"/>
+      <c r="R17" s="97" t="n">
         <v>19000</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   MAKE ALL CHECKS PAYABLE TO ITE, INC.</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="24" t="n"/>
-      <c r="F18" s="7" t="n"/>
-      <c r="G18" s="7" t="n"/>
-      <c r="H18" s="7" t="n"/>
-      <c r="I18" s="7" t="n"/>
-      <c r="J18" s="7" t="n"/>
-      <c r="K18" s="84" t="n"/>
-      <c r="L18" s="84" t="n"/>
-      <c r="M18" s="84" t="n"/>
-      <c r="N18" s="14" t="n"/>
-      <c r="O18" s="84" t="n"/>
-      <c r="P18" s="84" t="inlineStr">
-        <is>
-          <t>TOTAL DUE(USD):</t>
-        </is>
-      </c>
-      <c r="Q18" s="85" t="n"/>
-      <c r="R18" s="97" t="n">
-        <v>38000</v>
-      </c>
+      <c r="A18" s="98" t="inlineStr">
+        <is>
+          <t>ITE USE ONLY</t>
+        </is>
+      </c>
+      <c r="B18" s="99" t="n"/>
+      <c r="C18" s="99" t="n"/>
+      <c r="D18" s="99" t="n"/>
+      <c r="E18" s="99" t="n"/>
+      <c r="F18" s="99" t="n"/>
+      <c r="G18" s="99" t="n"/>
+      <c r="H18" s="99" t="n"/>
+      <c r="I18" s="99" t="n"/>
+      <c r="J18" s="100" t="n"/>
+      <c r="K18" s="50" t="inlineStr">
+        <is>
+          <t>MANUFACTURED BY:</t>
+        </is>
+      </c>
+      <c r="N18" s="3" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="98" t="inlineStr">
-        <is>
-          <t>ITE USE ONLY</t>
-        </is>
-      </c>
-      <c r="B19" s="99" t="n"/>
-      <c r="C19" s="99" t="n"/>
-      <c r="D19" s="99" t="n"/>
-      <c r="E19" s="99" t="n"/>
-      <c r="F19" s="99" t="n"/>
-      <c r="G19" s="99" t="n"/>
-      <c r="H19" s="99" t="n"/>
-      <c r="I19" s="99" t="n"/>
-      <c r="J19" s="100" t="n"/>
-      <c r="K19" s="50" t="inlineStr">
-        <is>
-          <t>MANUFACTURED BY:</t>
+      <c r="A19" s="46" t="inlineStr">
+        <is>
+          <t>fcrq</t>
+        </is>
+      </c>
+      <c r="B19" s="47" t="n"/>
+      <c r="C19" s="45" t="inlineStr">
+        <is>
+          <t>cwdz</t>
+        </is>
+      </c>
+      <c r="D19" s="47" t="n"/>
+      <c r="E19" s="33" t="inlineStr">
+        <is>
+          <t>zffs</t>
+        </is>
+      </c>
+      <c r="F19" s="34" t="inlineStr">
+        <is>
+          <t>zfrq</t>
+        </is>
+      </c>
+      <c r="G19" s="34" t="inlineStr">
+        <is>
+          <t>crzh</t>
+        </is>
+      </c>
+      <c r="H19" s="34" t="inlineStr">
+        <is>
+          <t>crje</t>
+        </is>
+      </c>
+      <c r="I19" s="34" t="inlineStr">
+        <is>
+          <t>fkbl</t>
+        </is>
+      </c>
+      <c r="J19" s="28" t="inlineStr">
+        <is>
+          <t>tgi</t>
         </is>
       </c>
       <c r="N19" s="3" t="n"/>
     </row>
     <row r="20" ht="14" customHeight="1" thickBot="1">
-      <c r="A20" s="101" t="inlineStr">
-        <is>
-          <t>fcrq</t>
-        </is>
-      </c>
-      <c r="B20" s="47" t="n"/>
-      <c r="C20" s="45" t="inlineStr">
-        <is>
-          <t>cwdz</t>
-        </is>
-      </c>
-      <c r="D20" s="47" t="n"/>
-      <c r="E20" s="33" t="inlineStr">
-        <is>
-          <t>zffs</t>
-        </is>
-      </c>
-      <c r="F20" s="34" t="inlineStr">
-        <is>
-          <t>zfrq</t>
-        </is>
-      </c>
-      <c r="G20" s="34" t="inlineStr">
-        <is>
-          <t>crzh</t>
-        </is>
-      </c>
-      <c r="H20" s="34" t="inlineStr">
-        <is>
-          <t>crje</t>
-        </is>
-      </c>
-      <c r="I20" s="34" t="inlineStr">
-        <is>
-          <t>fkbl</t>
-        </is>
-      </c>
-      <c r="J20" s="28" t="inlineStr">
-        <is>
-          <t>tgi</t>
-        </is>
-      </c>
+      <c r="A20" s="101" t="n"/>
+      <c r="B20" s="49" t="n"/>
+      <c r="C20" s="54" t="n"/>
+      <c r="D20" s="55" t="n"/>
+      <c r="E20" s="36" t="n"/>
+      <c r="F20" s="37" t="n"/>
+      <c r="G20" s="37" t="n"/>
+      <c r="H20" s="37" t="n"/>
+      <c r="I20" s="37" t="n"/>
+      <c r="J20" s="38" t="n"/>
       <c r="N20" s="3" t="n"/>
     </row>
     <row r="21" ht="14" customHeight="1" thickTop="1">
-      <c r="A21" s="48" t="n"/>
-      <c r="B21" s="49" t="n"/>
-      <c r="C21" s="54" t="n"/>
-      <c r="D21" s="55" t="n"/>
-      <c r="E21" s="36" t="n"/>
-      <c r="F21" s="37" t="n"/>
-      <c r="G21" s="37" t="n"/>
-      <c r="H21" s="37" t="n"/>
-      <c r="I21" s="37" t="n"/>
-      <c r="J21" s="38" t="n"/>
+      <c r="A21" s="42" t="n"/>
+      <c r="B21" s="43" t="n"/>
+      <c r="C21" s="44" t="n"/>
+      <c r="D21" s="43" t="n"/>
+      <c r="E21" s="40" t="n"/>
+      <c r="F21" s="39" t="n"/>
+      <c r="G21" s="39" t="n"/>
+      <c r="H21" s="39" t="n"/>
+      <c r="I21" s="39" t="n"/>
+      <c r="J21" s="41" t="n"/>
       <c r="N21" s="3" t="n"/>
     </row>
-    <row r="22">
-      <c r="A22" s="42" t="n"/>
-      <c r="B22" s="43" t="n"/>
-      <c r="C22" s="44" t="n"/>
-      <c r="D22" s="43" t="n"/>
-      <c r="E22" s="40" t="n"/>
-      <c r="F22" s="39" t="n"/>
-      <c r="G22" s="39" t="n"/>
-      <c r="H22" s="39" t="n"/>
-      <c r="I22" s="39" t="n"/>
-      <c r="J22" s="41" t="n"/>
-      <c r="N22" s="3" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="41">
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="Q3:R3"/>
@@ -1828,16 +1776,12 @@
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A19:J19"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="N8:R8"/>
@@ -1861,6 +1805,7 @@
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A18:J18"/>
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="B14:C15"/>
   </mergeCells>

--- a/results/Invoice/Invoice.xlsx
+++ b/results/Invoice/Invoice.xlsx
@@ -591,7 +591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -798,12 +798,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1594,7 +1593,7 @@
       <c r="C16" s="96" t="n"/>
       <c r="D16" s="95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E16" s="95" t="inlineStr">
@@ -1612,11 +1611,7 @@
       <c r="I16" s="95" t="n">
         <v>5000</v>
       </c>
-      <c r="J16" s="95" t="inlineStr">
-        <is>
-          <t>EACH</t>
-        </is>
-      </c>
+      <c r="J16" s="95" t="n"/>
       <c r="K16" s="95" t="n"/>
       <c r="L16" s="95" t="inlineStr">
         <is>
@@ -1740,7 +1735,7 @@
       <c r="N19" s="3" t="n"/>
     </row>
     <row r="20" ht="14" customHeight="1" thickBot="1">
-      <c r="A20" s="101" t="n"/>
+      <c r="A20" s="48" t="n"/>
       <c r="B20" s="49" t="n"/>
       <c r="C20" s="54" t="n"/>
       <c r="D20" s="55" t="n"/>

--- a/results/Invoice/Invoice.xlsx
+++ b/results/Invoice/Invoice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="25600" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="605" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -20,8 +20,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="00000"/>
+    <numFmt numFmtId="166" formatCode="00000"/>
+    <numFmt numFmtId="167" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -694,89 +694,91 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -878,6 +880,52 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>7</col>
+      <colOff>666750</colOff>
+      <row>0</row>
+      <rowOff>95250</rowOff>
+    </from>
+    <to>
+      <col>11</col>
+      <colOff>12573</colOff>
+      <row>8</row>
+      <rowOff>156972</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Picture 2" descr="TQSignatureSeal.jpg"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4914900" y="95250"/>
+          <a:ext cx="2670048" cy="1795272"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1171,10 +1219,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13"/>
@@ -1237,7 +1285,7 @@
           <t>INVOICE NUMBER:</t>
         </is>
       </c>
-      <c r="Q2" s="86" t="n"/>
+      <c r="Q2" s="85" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="n"/>
@@ -1264,9 +1312,9 @@
           <t>DATE:</t>
         </is>
       </c>
-      <c r="Q3" s="58" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
+      <c r="Q3" s="86" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
@@ -1320,89 +1368,89 @@
           <t>TO:</t>
         </is>
       </c>
-      <c r="B6" s="60" t="inlineStr"/>
+      <c r="B6" s="82" t="inlineStr"/>
       <c r="M6" s="12" t="inlineStr">
         <is>
           <t>SHIP TO:</t>
         </is>
       </c>
-      <c r="N6" s="69" t="inlineStr"/>
+      <c r="N6" s="81" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n"/>
-      <c r="B7" s="60" t="inlineStr"/>
-      <c r="N7" s="69" t="inlineStr"/>
+      <c r="B7" s="82" t="inlineStr"/>
+      <c r="N7" s="81" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n"/>
-      <c r="B8" s="60" t="inlineStr"/>
-      <c r="N8" s="69" t="inlineStr"/>
+      <c r="B8" s="82" t="inlineStr"/>
+      <c r="N8" s="81" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n"/>
-      <c r="B9" s="60" t="inlineStr"/>
-      <c r="N9" s="69" t="inlineStr"/>
+      <c r="B9" s="82" t="inlineStr"/>
+      <c r="N9" s="81" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n"/>
-      <c r="B10" s="60" t="n"/>
+      <c r="B10" s="82" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
       <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
-      <c r="K10" s="84" t="n"/>
-      <c r="L10" s="84" t="n"/>
-      <c r="M10" s="84" t="n"/>
+      <c r="K10" s="13" t="n"/>
+      <c r="L10" s="13" t="n"/>
+      <c r="M10" s="13" t="n"/>
       <c r="N10" s="14" t="n"/>
-      <c r="O10" s="84" t="n"/>
-      <c r="P10" s="66" t="n"/>
+      <c r="O10" s="13" t="n"/>
+      <c r="P10" s="78" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="65" t="inlineStr">
+      <c r="A11" s="59" t="inlineStr">
         <is>
           <t>DATE SHIPPED</t>
         </is>
       </c>
       <c r="B11" s="87" t="n"/>
       <c r="C11" s="88" t="n"/>
-      <c r="D11" s="65" t="inlineStr">
+      <c r="D11" s="59" t="inlineStr">
         <is>
           <t>SHIPPED VIA</t>
         </is>
       </c>
       <c r="E11" s="88" t="n"/>
-      <c r="F11" s="65" t="inlineStr">
+      <c r="F11" s="59" t="inlineStr">
         <is>
           <t>COUNTRY OF ORIGIN</t>
         </is>
       </c>
       <c r="G11" s="88" t="n"/>
-      <c r="H11" s="65" t="inlineStr">
+      <c r="H11" s="59" t="inlineStr">
         <is>
           <t>INCOTERMS</t>
         </is>
       </c>
-      <c r="I11" s="65" t="inlineStr">
+      <c r="I11" s="59" t="inlineStr">
         <is>
           <t>PAYMENT TERMS</t>
         </is>
       </c>
       <c r="J11" s="88" t="n"/>
-      <c r="K11" s="61" t="n"/>
+      <c r="K11" s="80" t="n"/>
       <c r="L11" s="88" t="n"/>
-      <c r="M11" s="61" t="inlineStr">
+      <c r="M11" s="80" t="inlineStr">
         <is>
           <t>FREIGHT FORWARDER</t>
         </is>
       </c>
       <c r="N11" s="88" t="n"/>
-      <c r="O11" s="61" t="inlineStr">
+      <c r="O11" s="80" t="inlineStr">
         <is>
           <t>SHIPMENT ID</t>
         </is>
       </c>
       <c r="P11" s="88" t="n"/>
-      <c r="Q11" s="61" t="inlineStr">
+      <c r="Q11" s="80" t="inlineStr">
         <is>
           <t>TRACKING NUMBER</t>
         </is>
@@ -1410,31 +1458,31 @@
       <c r="R11" s="88" t="n"/>
     </row>
     <row r="12" ht="20.75" customFormat="1" customHeight="1" s="35">
-      <c r="A12" s="74" t="n"/>
+      <c r="A12" s="61" t="n"/>
       <c r="B12" s="87" t="n"/>
       <c r="C12" s="88" t="n"/>
-      <c r="D12" s="64" t="inlineStr">
+      <c r="D12" s="60" t="inlineStr">
         <is>
           <t>Sea</t>
         </is>
       </c>
       <c r="E12" s="88" t="n"/>
-      <c r="F12" s="64" t="inlineStr">
+      <c r="F12" s="60" t="inlineStr">
         <is>
           <t>CHINA</t>
         </is>
       </c>
       <c r="G12" s="88" t="n"/>
-      <c r="H12" s="64" t="n"/>
-      <c r="I12" s="64" t="inlineStr"/>
+      <c r="H12" s="60" t="n"/>
+      <c r="I12" s="60" t="inlineStr"/>
       <c r="J12" s="88" t="n"/>
-      <c r="K12" s="64" t="n"/>
+      <c r="K12" s="60" t="n"/>
       <c r="L12" s="88" t="n"/>
-      <c r="M12" s="68" t="n"/>
+      <c r="M12" s="66" t="n"/>
       <c r="N12" s="88" t="n"/>
-      <c r="O12" s="64" t="n"/>
+      <c r="O12" s="60" t="n"/>
       <c r="P12" s="88" t="n"/>
-      <c r="Q12" s="64" t="n"/>
+      <c r="Q12" s="60" t="n"/>
       <c r="R12" s="88" t="n"/>
     </row>
     <row r="13">
@@ -1458,40 +1506,40 @@
       <c r="R13" s="17" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="83" t="inlineStr">
+      <c r="A14" s="75" t="inlineStr">
         <is>
           <t>ITEM</t>
         </is>
       </c>
-      <c r="B14" s="83" t="inlineStr">
+      <c r="B14" s="75" t="inlineStr">
         <is>
           <t>P.O. NO.</t>
         </is>
       </c>
       <c r="C14" s="89" t="n"/>
-      <c r="D14" s="56" t="inlineStr">
+      <c r="D14" s="73" t="inlineStr">
         <is>
           <t>LINE</t>
         </is>
       </c>
-      <c r="E14" s="83" t="inlineStr">
+      <c r="E14" s="75" t="inlineStr">
         <is>
           <t>PART NO.</t>
         </is>
       </c>
       <c r="F14" s="89" t="n"/>
-      <c r="G14" s="83" t="inlineStr">
+      <c r="G14" s="75" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="H14" s="89" t="n"/>
-      <c r="I14" s="83" t="inlineStr">
+      <c r="I14" s="75" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="J14" s="83" t="inlineStr">
+      <c r="J14" s="75" t="inlineStr">
         <is>
           <t>UNIT</t>
         </is>
@@ -1526,7 +1574,7 @@
           <t>UNIT</t>
         </is>
       </c>
-      <c r="Q14" s="19" t="inlineStr">
+      <c r="Q14" s="90" t="inlineStr">
         <is>
           <t>UNIT PRICE</t>
         </is>
@@ -1541,7 +1589,7 @@
       <c r="A15" s="92" t="n"/>
       <c r="B15" s="93" t="n"/>
       <c r="C15" s="94" t="n"/>
-      <c r="D15" s="57" t="inlineStr">
+      <c r="D15" s="74" t="inlineStr">
         <is>
           <t>NO.</t>
         </is>
@@ -1574,11 +1622,7 @@
           <t>SUR</t>
         </is>
       </c>
-      <c r="Q15" s="15" t="inlineStr">
-        <is>
-          <t>W/SUR</t>
-        </is>
-      </c>
+      <c r="Q15" s="92" t="n"/>
       <c r="R15" s="92" t="n"/>
     </row>
     <row r="16" ht="14" customHeight="1" thickBot="1">
@@ -1593,7 +1637,7 @@
       <c r="C16" s="96" t="n"/>
       <c r="D16" s="95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E16" s="95" t="inlineStr">
@@ -1611,7 +1655,11 @@
       <c r="I16" s="95" t="n">
         <v>5000</v>
       </c>
-      <c r="J16" s="95" t="n"/>
+      <c r="J16" s="95" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
       <c r="K16" s="95" t="n"/>
       <c r="L16" s="95" t="inlineStr">
         <is>
@@ -1619,7 +1667,7 @@
         </is>
       </c>
       <c r="M16" s="95" t="n">
-        <v>3.8</v>
+        <v>3.23</v>
       </c>
       <c r="N16" s="95" t="inlineStr">
         <is>
@@ -1631,152 +1679,217 @@
         <v>0</v>
       </c>
       <c r="Q16" s="95" t="n">
-        <v>3.8</v>
+        <v>3.23</v>
       </c>
       <c r="R16" s="95" t="n">
-        <v>19000</v>
+        <v>16150</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1" thickTop="1">
-      <c r="A17" s="7" t="inlineStr">
+      <c r="A17" s="95" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="95" t="inlineStr">
+        <is>
+          <t>bbbb</t>
+        </is>
+      </c>
+      <c r="C17" s="96" t="n"/>
+      <c r="D17" s="95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E17" s="95" t="inlineStr">
+        <is>
+          <t>01008-1404</t>
+        </is>
+      </c>
+      <c r="F17" s="96" t="n"/>
+      <c r="G17" s="95" t="inlineStr">
+        <is>
+          <t>Surcharge test</t>
+        </is>
+      </c>
+      <c r="H17" s="96" t="n"/>
+      <c r="I17" s="95" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J17" s="95" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="K17" s="95" t="n"/>
+      <c r="L17" s="95" t="inlineStr">
+        <is>
+          <t>DI</t>
+        </is>
+      </c>
+      <c r="M17" s="95" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="N17" s="95" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="O17" s="95" t="n"/>
+      <c r="P17" s="95" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Q17" s="95" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="R17" s="95" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">   MAKE ALL CHECKS PAYABLE TO ITE, INC.</t>
         </is>
       </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="24" t="n"/>
-      <c r="F17" s="7" t="n"/>
-      <c r="G17" s="7" t="n"/>
-      <c r="H17" s="7" t="n"/>
-      <c r="I17" s="7" t="n"/>
-      <c r="J17" s="7" t="n"/>
-      <c r="K17" s="84" t="n"/>
-      <c r="L17" s="84" t="n"/>
-      <c r="M17" s="84" t="n"/>
-      <c r="N17" s="14" t="n"/>
-      <c r="O17" s="84" t="n"/>
-      <c r="P17" s="84" t="inlineStr">
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="24" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="7" t="n"/>
+      <c r="H18" s="7" t="n"/>
+      <c r="I18" s="7" t="n"/>
+      <c r="J18" s="7" t="n"/>
+      <c r="K18" s="13" t="n"/>
+      <c r="L18" s="13" t="n"/>
+      <c r="M18" s="13" t="n"/>
+      <c r="N18" s="14" t="n"/>
+      <c r="O18" s="13" t="n"/>
+      <c r="P18" s="13" t="inlineStr">
         <is>
           <t>TOTAL DUE(USD):</t>
         </is>
       </c>
-      <c r="Q17" s="85" t="n"/>
-      <c r="R17" s="97" t="n">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="98" t="inlineStr">
+      <c r="Q18" s="56" t="n"/>
+      <c r="R18" s="97" t="n">
+        <v>17750</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="98" t="inlineStr">
         <is>
           <t>ITE USE ONLY</t>
         </is>
       </c>
-      <c r="B18" s="99" t="n"/>
-      <c r="C18" s="99" t="n"/>
-      <c r="D18" s="99" t="n"/>
-      <c r="E18" s="99" t="n"/>
-      <c r="F18" s="99" t="n"/>
-      <c r="G18" s="99" t="n"/>
-      <c r="H18" s="99" t="n"/>
-      <c r="I18" s="99" t="n"/>
-      <c r="J18" s="100" t="n"/>
-      <c r="K18" s="50" t="inlineStr">
+      <c r="B19" s="99" t="n"/>
+      <c r="C19" s="99" t="n"/>
+      <c r="D19" s="99" t="n"/>
+      <c r="E19" s="99" t="n"/>
+      <c r="F19" s="99" t="n"/>
+      <c r="G19" s="99" t="n"/>
+      <c r="H19" s="99" t="n"/>
+      <c r="I19" s="99" t="n"/>
+      <c r="J19" s="100" t="n"/>
+      <c r="K19" s="50" t="inlineStr">
         <is>
           <t>MANUFACTURED BY:</t>
         </is>
       </c>
-      <c r="N18" s="3" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="46" t="inlineStr">
+      <c r="N19" s="3" t="n"/>
+    </row>
+    <row r="20" ht="14" customHeight="1" thickBot="1">
+      <c r="A20" s="46" t="inlineStr">
         <is>
           <t>fcrq</t>
         </is>
       </c>
-      <c r="B19" s="47" t="n"/>
-      <c r="C19" s="45" t="inlineStr">
+      <c r="B20" s="47" t="n"/>
+      <c r="C20" s="45" t="inlineStr">
         <is>
           <t>cwdz</t>
         </is>
       </c>
-      <c r="D19" s="47" t="n"/>
-      <c r="E19" s="33" t="inlineStr">
+      <c r="D20" s="47" t="n"/>
+      <c r="E20" s="33" t="inlineStr">
         <is>
           <t>zffs</t>
         </is>
       </c>
-      <c r="F19" s="34" t="inlineStr">
+      <c r="F20" s="34" t="inlineStr">
         <is>
           <t>zfrq</t>
         </is>
       </c>
-      <c r="G19" s="34" t="inlineStr">
+      <c r="G20" s="34" t="inlineStr">
         <is>
           <t>crzh</t>
         </is>
       </c>
-      <c r="H19" s="34" t="inlineStr">
+      <c r="H20" s="34" t="inlineStr">
         <is>
           <t>crje</t>
         </is>
       </c>
-      <c r="I19" s="34" t="inlineStr">
+      <c r="I20" s="34" t="inlineStr">
         <is>
           <t>fkbl</t>
         </is>
       </c>
-      <c r="J19" s="28" t="inlineStr">
+      <c r="J20" s="28" t="inlineStr">
         <is>
           <t>tgi</t>
         </is>
       </c>
-      <c r="N19" s="3" t="n"/>
-    </row>
-    <row r="20" ht="14" customHeight="1" thickBot="1">
-      <c r="A20" s="48" t="n"/>
-      <c r="B20" s="49" t="n"/>
-      <c r="C20" s="54" t="n"/>
-      <c r="D20" s="55" t="n"/>
-      <c r="E20" s="36" t="n"/>
-      <c r="F20" s="37" t="n"/>
-      <c r="G20" s="37" t="n"/>
-      <c r="H20" s="37" t="n"/>
-      <c r="I20" s="37" t="n"/>
-      <c r="J20" s="38" t="n"/>
       <c r="N20" s="3" t="n"/>
     </row>
     <row r="21" ht="14" customHeight="1" thickTop="1">
-      <c r="A21" s="42" t="n"/>
-      <c r="B21" s="43" t="n"/>
-      <c r="C21" s="44" t="n"/>
-      <c r="D21" s="43" t="n"/>
-      <c r="E21" s="40" t="n"/>
-      <c r="F21" s="39" t="n"/>
-      <c r="G21" s="39" t="n"/>
-      <c r="H21" s="39" t="n"/>
-      <c r="I21" s="39" t="n"/>
-      <c r="J21" s="41" t="n"/>
+      <c r="A21" s="48" t="n"/>
+      <c r="B21" s="49" t="n"/>
+      <c r="C21" s="54" t="n"/>
+      <c r="D21" s="55" t="n"/>
+      <c r="E21" s="36" t="n"/>
+      <c r="F21" s="37" t="n"/>
+      <c r="G21" s="37" t="n"/>
+      <c r="H21" s="37" t="n"/>
+      <c r="I21" s="37" t="n"/>
+      <c r="J21" s="38" t="n"/>
       <c r="N21" s="3" t="n"/>
     </row>
+    <row r="22">
+      <c r="A22" s="42" t="n"/>
+      <c r="B22" s="43" t="n"/>
+      <c r="C22" s="44" t="n"/>
+      <c r="D22" s="43" t="n"/>
+      <c r="E22" s="40" t="n"/>
+      <c r="F22" s="39" t="n"/>
+      <c r="G22" s="39" t="n"/>
+      <c r="H22" s="39" t="n"/>
+      <c r="I22" s="39" t="n"/>
+      <c r="J22" s="41" t="n"/>
+      <c r="N22" s="3" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="45">
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q14:Q15"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="N7:R7"/>
+    <mergeCell ref="B8:G8"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B8:G8"/>
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A19:J19"/>
     <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="N8:R8"/>
@@ -1791,21 +1904,21 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="J14:J15"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="R14:R15"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="R14:R15"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="O11:P11"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A18:J18"/>
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="B14:C15"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" scale="72" horizontalDpi="4294967292" verticalDpi="300"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/results/Invoice/Invoice.xlsx
+++ b/results/Invoice/Invoice.xlsx
@@ -1461,11 +1461,7 @@
       <c r="A12" s="61" t="n"/>
       <c r="B12" s="87" t="n"/>
       <c r="C12" s="88" t="n"/>
-      <c r="D12" s="60" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
+      <c r="D12" s="60" t="n"/>
       <c r="E12" s="88" t="n"/>
       <c r="F12" s="60" t="inlineStr">
         <is>
@@ -1474,7 +1470,7 @@
       </c>
       <c r="G12" s="88" t="n"/>
       <c r="H12" s="60" t="n"/>
-      <c r="I12" s="60" t="inlineStr"/>
+      <c r="I12" s="60" t="n"/>
       <c r="J12" s="88" t="n"/>
       <c r="K12" s="60" t="n"/>
       <c r="L12" s="88" t="n"/>
@@ -1629,120 +1625,64 @@
       <c r="A16" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="B16" s="95" t="inlineStr">
-        <is>
-          <t>bbbb</t>
-        </is>
-      </c>
+      <c r="B16" s="95" t="n"/>
       <c r="C16" s="96" t="n"/>
-      <c r="D16" s="95" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E16" s="95" t="inlineStr">
-        <is>
-          <t>01008-1404</t>
-        </is>
-      </c>
+      <c r="D16" s="95" t="n"/>
+      <c r="E16" s="95" t="n"/>
       <c r="F16" s="96" t="n"/>
       <c r="G16" s="95" t="inlineStr">
         <is>
-          <t>SADDLE</t>
+          <t>test</t>
         </is>
       </c>
       <c r="H16" s="96" t="n"/>
       <c r="I16" s="95" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J16" s="95" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J16" s="95" t="n"/>
       <c r="K16" s="95" t="n"/>
-      <c r="L16" s="95" t="inlineStr">
-        <is>
-          <t>DI</t>
-        </is>
-      </c>
-      <c r="M16" s="95" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="N16" s="95" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="L16" s="95" t="n"/>
+      <c r="M16" s="95" t="n"/>
+      <c r="N16" s="95" t="n"/>
       <c r="O16" s="95" t="n"/>
-      <c r="P16" s="95" t="n">
-        <v>0</v>
-      </c>
+      <c r="P16" s="95" t="n"/>
       <c r="Q16" s="95" t="n">
-        <v>3.23</v>
+        <v>10</v>
       </c>
       <c r="R16" s="95" t="n">
-        <v>16150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1" thickTop="1">
       <c r="A17" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="B17" s="95" t="inlineStr">
-        <is>
-          <t>bbbb</t>
-        </is>
-      </c>
+      <c r="B17" s="95" t="n"/>
       <c r="C17" s="96" t="n"/>
-      <c r="D17" s="95" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E17" s="95" t="inlineStr">
-        <is>
-          <t>01008-1404</t>
-        </is>
-      </c>
+      <c r="D17" s="95" t="n"/>
+      <c r="E17" s="95" t="n"/>
       <c r="F17" s="96" t="n"/>
       <c r="G17" s="95" t="inlineStr">
         <is>
-          <t>Surcharge test</t>
+          <t>test2</t>
         </is>
       </c>
       <c r="H17" s="96" t="n"/>
       <c r="I17" s="95" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J17" s="95" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J17" s="95" t="n"/>
       <c r="K17" s="95" t="n"/>
-      <c r="L17" s="95" t="inlineStr">
-        <is>
-          <t>DI</t>
-        </is>
-      </c>
-      <c r="M17" s="95" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="N17" s="95" t="inlineStr">
-        <is>
-          <t>10.0%</t>
-        </is>
-      </c>
+      <c r="L17" s="95" t="n"/>
+      <c r="M17" s="95" t="n"/>
+      <c r="N17" s="95" t="n"/>
       <c r="O17" s="95" t="n"/>
-      <c r="P17" s="95" t="n">
-        <v>0.32</v>
-      </c>
+      <c r="P17" s="95" t="n"/>
       <c r="Q17" s="95" t="n">
-        <v>0.32</v>
+        <v>15</v>
       </c>
       <c r="R17" s="95" t="n">
-        <v>1600</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -1772,7 +1712,7 @@
       </c>
       <c r="Q18" s="56" t="n"/>
       <c r="R18" s="97" t="n">
-        <v>17750</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">

--- a/results/Invoice/Invoice.xlsx
+++ b/results/Invoice/Invoice.xlsx
@@ -1219,7 +1219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
@@ -1461,7 +1461,11 @@
       <c r="A12" s="61" t="n"/>
       <c r="B12" s="87" t="n"/>
       <c r="C12" s="88" t="n"/>
-      <c r="D12" s="60" t="n"/>
+      <c r="D12" s="60" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
       <c r="E12" s="88" t="n"/>
       <c r="F12" s="60" t="inlineStr">
         <is>
@@ -1470,7 +1474,7 @@
       </c>
       <c r="G12" s="88" t="n"/>
       <c r="H12" s="60" t="n"/>
-      <c r="I12" s="60" t="n"/>
+      <c r="I12" s="60" t="inlineStr"/>
       <c r="J12" s="88" t="n"/>
       <c r="K12" s="60" t="n"/>
       <c r="L12" s="88" t="n"/>
@@ -1625,191 +1629,187 @@
       <c r="A16" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="B16" s="95" t="n"/>
+      <c r="B16" s="95" t="inlineStr">
+        <is>
+          <t>bbbb</t>
+        </is>
+      </c>
       <c r="C16" s="96" t="n"/>
-      <c r="D16" s="95" t="n"/>
-      <c r="E16" s="95" t="n"/>
+      <c r="D16" s="95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="95" t="inlineStr">
+        <is>
+          <t>01008-1404</t>
+        </is>
+      </c>
       <c r="F16" s="96" t="n"/>
       <c r="G16" s="95" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>SADDLE</t>
         </is>
       </c>
       <c r="H16" s="96" t="n"/>
       <c r="I16" s="95" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" s="95" t="n"/>
+        <v>5000</v>
+      </c>
+      <c r="J16" s="95" t="inlineStr">
+        <is>
+          <t>EACH</t>
+        </is>
+      </c>
       <c r="K16" s="95" t="n"/>
-      <c r="L16" s="95" t="n"/>
-      <c r="M16" s="95" t="n"/>
-      <c r="N16" s="95" t="n"/>
+      <c r="L16" s="95" t="inlineStr">
+        <is>
+          <t>DI</t>
+        </is>
+      </c>
+      <c r="M16" s="95" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N16" s="95" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="O16" s="95" t="n"/>
-      <c r="P16" s="95" t="n"/>
+      <c r="P16" s="95" t="n">
+        <v>0</v>
+      </c>
       <c r="Q16" s="95" t="n">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="R16" s="95" t="n">
-        <v>20</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1" thickTop="1">
-      <c r="A17" s="95" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" s="95" t="n"/>
-      <c r="C17" s="96" t="n"/>
-      <c r="D17" s="95" t="n"/>
-      <c r="E17" s="95" t="n"/>
-      <c r="F17" s="96" t="n"/>
-      <c r="G17" s="95" t="inlineStr">
-        <is>
-          <t>test2</t>
-        </is>
-      </c>
-      <c r="H17" s="96" t="n"/>
-      <c r="I17" s="95" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" s="95" t="n"/>
-      <c r="K17" s="95" t="n"/>
-      <c r="L17" s="95" t="n"/>
-      <c r="M17" s="95" t="n"/>
-      <c r="N17" s="95" t="n"/>
-      <c r="O17" s="95" t="n"/>
-      <c r="P17" s="95" t="n"/>
-      <c r="Q17" s="95" t="n">
-        <v>15</v>
-      </c>
-      <c r="R17" s="95" t="n">
-        <v>30</v>
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   MAKE ALL CHECKS PAYABLE TO ITE, INC.</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="24" t="n"/>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="7" t="n"/>
+      <c r="H17" s="7" t="n"/>
+      <c r="I17" s="7" t="n"/>
+      <c r="J17" s="7" t="n"/>
+      <c r="K17" s="13" t="n"/>
+      <c r="L17" s="13" t="n"/>
+      <c r="M17" s="13" t="n"/>
+      <c r="N17" s="14" t="n"/>
+      <c r="O17" s="13" t="n"/>
+      <c r="P17" s="13" t="inlineStr">
+        <is>
+          <t>TOTAL DUE(USD):</t>
+        </is>
+      </c>
+      <c r="Q17" s="56" t="n"/>
+      <c r="R17" s="97" t="n">
+        <v>19000</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   MAKE ALL CHECKS PAYABLE TO ITE, INC.</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="24" t="n"/>
-      <c r="F18" s="7" t="n"/>
-      <c r="G18" s="7" t="n"/>
-      <c r="H18" s="7" t="n"/>
-      <c r="I18" s="7" t="n"/>
-      <c r="J18" s="7" t="n"/>
-      <c r="K18" s="13" t="n"/>
-      <c r="L18" s="13" t="n"/>
-      <c r="M18" s="13" t="n"/>
-      <c r="N18" s="14" t="n"/>
-      <c r="O18" s="13" t="n"/>
-      <c r="P18" s="13" t="inlineStr">
-        <is>
-          <t>TOTAL DUE(USD):</t>
-        </is>
-      </c>
-      <c r="Q18" s="56" t="n"/>
-      <c r="R18" s="97" t="n">
-        <v>50</v>
-      </c>
+      <c r="A18" s="98" t="inlineStr">
+        <is>
+          <t>ITE USE ONLY</t>
+        </is>
+      </c>
+      <c r="B18" s="99" t="n"/>
+      <c r="C18" s="99" t="n"/>
+      <c r="D18" s="99" t="n"/>
+      <c r="E18" s="99" t="n"/>
+      <c r="F18" s="99" t="n"/>
+      <c r="G18" s="99" t="n"/>
+      <c r="H18" s="99" t="n"/>
+      <c r="I18" s="99" t="n"/>
+      <c r="J18" s="100" t="n"/>
+      <c r="K18" s="50" t="inlineStr">
+        <is>
+          <t>MANUFACTURED BY:</t>
+        </is>
+      </c>
+      <c r="N18" s="3" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="98" t="inlineStr">
-        <is>
-          <t>ITE USE ONLY</t>
-        </is>
-      </c>
-      <c r="B19" s="99" t="n"/>
-      <c r="C19" s="99" t="n"/>
-      <c r="D19" s="99" t="n"/>
-      <c r="E19" s="99" t="n"/>
-      <c r="F19" s="99" t="n"/>
-      <c r="G19" s="99" t="n"/>
-      <c r="H19" s="99" t="n"/>
-      <c r="I19" s="99" t="n"/>
-      <c r="J19" s="100" t="n"/>
-      <c r="K19" s="50" t="inlineStr">
-        <is>
-          <t>MANUFACTURED BY:</t>
+      <c r="A19" s="46" t="inlineStr">
+        <is>
+          <t>fcrq</t>
+        </is>
+      </c>
+      <c r="B19" s="47" t="n"/>
+      <c r="C19" s="45" t="inlineStr">
+        <is>
+          <t>cwdz</t>
+        </is>
+      </c>
+      <c r="D19" s="47" t="n"/>
+      <c r="E19" s="33" t="inlineStr">
+        <is>
+          <t>zffs</t>
+        </is>
+      </c>
+      <c r="F19" s="34" t="inlineStr">
+        <is>
+          <t>zfrq</t>
+        </is>
+      </c>
+      <c r="G19" s="34" t="inlineStr">
+        <is>
+          <t>crzh</t>
+        </is>
+      </c>
+      <c r="H19" s="34" t="inlineStr">
+        <is>
+          <t>crje</t>
+        </is>
+      </c>
+      <c r="I19" s="34" t="inlineStr">
+        <is>
+          <t>fkbl</t>
+        </is>
+      </c>
+      <c r="J19" s="28" t="inlineStr">
+        <is>
+          <t>tgi</t>
         </is>
       </c>
       <c r="N19" s="3" t="n"/>
     </row>
     <row r="20" ht="14" customHeight="1" thickBot="1">
-      <c r="A20" s="46" t="inlineStr">
-        <is>
-          <t>fcrq</t>
-        </is>
-      </c>
-      <c r="B20" s="47" t="n"/>
-      <c r="C20" s="45" t="inlineStr">
-        <is>
-          <t>cwdz</t>
-        </is>
-      </c>
-      <c r="D20" s="47" t="n"/>
-      <c r="E20" s="33" t="inlineStr">
-        <is>
-          <t>zffs</t>
-        </is>
-      </c>
-      <c r="F20" s="34" t="inlineStr">
-        <is>
-          <t>zfrq</t>
-        </is>
-      </c>
-      <c r="G20" s="34" t="inlineStr">
-        <is>
-          <t>crzh</t>
-        </is>
-      </c>
-      <c r="H20" s="34" t="inlineStr">
-        <is>
-          <t>crje</t>
-        </is>
-      </c>
-      <c r="I20" s="34" t="inlineStr">
-        <is>
-          <t>fkbl</t>
-        </is>
-      </c>
-      <c r="J20" s="28" t="inlineStr">
-        <is>
-          <t>tgi</t>
-        </is>
-      </c>
+      <c r="A20" s="48" t="n"/>
+      <c r="B20" s="49" t="n"/>
+      <c r="C20" s="54" t="n"/>
+      <c r="D20" s="55" t="n"/>
+      <c r="E20" s="36" t="n"/>
+      <c r="F20" s="37" t="n"/>
+      <c r="G20" s="37" t="n"/>
+      <c r="H20" s="37" t="n"/>
+      <c r="I20" s="37" t="n"/>
+      <c r="J20" s="38" t="n"/>
       <c r="N20" s="3" t="n"/>
     </row>
     <row r="21" ht="14" customHeight="1" thickTop="1">
-      <c r="A21" s="48" t="n"/>
-      <c r="B21" s="49" t="n"/>
-      <c r="C21" s="54" t="n"/>
-      <c r="D21" s="55" t="n"/>
-      <c r="E21" s="36" t="n"/>
-      <c r="F21" s="37" t="n"/>
-      <c r="G21" s="37" t="n"/>
-      <c r="H21" s="37" t="n"/>
-      <c r="I21" s="37" t="n"/>
-      <c r="J21" s="38" t="n"/>
+      <c r="A21" s="42" t="n"/>
+      <c r="B21" s="43" t="n"/>
+      <c r="C21" s="44" t="n"/>
+      <c r="D21" s="43" t="n"/>
+      <c r="E21" s="40" t="n"/>
+      <c r="F21" s="39" t="n"/>
+      <c r="G21" s="39" t="n"/>
+      <c r="H21" s="39" t="n"/>
+      <c r="I21" s="39" t="n"/>
+      <c r="J21" s="41" t="n"/>
       <c r="N21" s="3" t="n"/>
     </row>
-    <row r="22">
-      <c r="A22" s="42" t="n"/>
-      <c r="B22" s="43" t="n"/>
-      <c r="C22" s="44" t="n"/>
-      <c r="D22" s="43" t="n"/>
-      <c r="E22" s="40" t="n"/>
-      <c r="F22" s="39" t="n"/>
-      <c r="G22" s="39" t="n"/>
-      <c r="H22" s="39" t="n"/>
-      <c r="I22" s="39" t="n"/>
-      <c r="J22" s="41" t="n"/>
-      <c r="N22" s="3" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="42">
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="Q3:R3"/>
@@ -1820,16 +1820,12 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A19:J19"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="N8:R8"/>
@@ -1853,6 +1849,7 @@
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A18:J18"/>
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="B14:C15"/>
   </mergeCells>
